--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -5,23 +5,23 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Snehal\ComplianceLatest\Litigation-Project-main (1)\Litigation-Project-main\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
     <sheet name="Notice Responses" sheetId="2" r:id="rId2"/>
     <sheet name="Payment Info" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -248,39 +248,45 @@
     <t>Sent</t>
   </si>
   <si>
-    <t>A Pvt Ltd</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 
-Mayur Gaikwad</t>
-  </si>
-  <si>
-    <t>Mayur Gaikwad</t>
-  </si>
-  <si>
-    <t>abc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-snehal.patil111@tlregtech.in</t>
+Deepali Dev</t>
   </si>
   <si>
     <t xml:space="preserve"> 
-snehal.patil111@tlregtech.in</t>
-  </si>
-  <si>
-    <t>ABC and Advocates</t>
+ABC and Advocates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A pvt ltd
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin </t>
+  </si>
+  <si>
+    <t>Admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+mayuri@tlregtech.in</t>
+  </si>
+  <si>
+    <t>mayuri@tlregtech.in</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 
+mayuri@tlregtech.in</t>
+  </si>
+  <si>
+    <t>Notice266623</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="d/mm/yyyy"/>
-    <numFmt numFmtId="165" formatCode="dd\-mmm\-yyyy"/>
-    <numFmt numFmtId="166" formatCode="d\-mmm\-yyyy"/>
-    <numFmt numFmtId="172" formatCode="0;[Red]0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="dd\-mmm\-yyyy"/>
+    <numFmt numFmtId="165" formatCode="d\-mmm\-yyyy"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -430,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -515,15 +521,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -909,8 +916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,7 +946,7 @@
     <col min="26" max="26" width="20.5703125" customWidth="1"/>
     <col min="27" max="28" width="12.7109375" customWidth="1"/>
     <col min="29" max="29" width="14.85546875" customWidth="1"/>
-    <col min="30" max="30" width="23.7109375" customWidth="1"/>
+    <col min="30" max="30" width="24.85546875" customWidth="1"/>
     <col min="31" max="31" width="36.140625" customWidth="1"/>
     <col min="32" max="32" width="23" customWidth="1"/>
     <col min="33" max="33" width="17.28515625" customWidth="1"/>
@@ -1067,21 +1074,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:38" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="38">
-        <v>7364836</v>
+      <c r="C2" s="36">
+        <v>7342453</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="F2" t="s">
         <v>65</v>
@@ -1093,16 +1100,16 @@
         <v>78</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="P2" s="34" t="s">
-        <v>79</v>
+      <c r="P2" s="37" t="s">
+        <v>80</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>35</v>
@@ -1119,12 +1126,13 @@
       <c r="AC2">
         <v>2023</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AD2" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="AE2" s="38" t="s">
         <v>81</v>
       </c>
-      <c r="AE2" s="31" t="s">
-        <v>80</v>
-      </c>
+      <c r="AF2" s="38"/>
       <c r="AG2" s="6" t="s">
         <v>37</v>
       </c>
@@ -1134,7 +1142,7 @@
       <c r="AJ2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AK2" s="37">
+      <c r="AK2" s="35">
         <v>45382</v>
       </c>
       <c r="AL2" t="s">
@@ -1148,8 +1156,8 @@
       <c r="B3" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="C3" s="38">
-        <v>8364836</v>
+      <c r="C3" s="36">
+        <v>66294</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>70</v>
@@ -1164,19 +1172,19 @@
         <v>33</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I3" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="K3" s="31" t="s">
         <v>77</v>
-      </c>
-      <c r="K3" s="31" t="s">
-        <v>75</v>
       </c>
       <c r="M3" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="P3" s="34" t="s">
-        <v>79</v>
+      <c r="P3" s="37" t="s">
+        <v>80</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>35</v>
@@ -1193,12 +1201,13 @@
       <c r="AC3" s="1">
         <v>2023</v>
       </c>
-      <c r="AD3" s="1" t="s">
-        <v>81</v>
+      <c r="AD3" s="31" t="s">
+        <v>76</v>
       </c>
       <c r="AE3" s="31" t="s">
-        <v>80</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="AF3" s="38"/>
       <c r="AG3" s="6" t="s">
         <v>37</v>
       </c>
@@ -1208,7 +1217,7 @@
       <c r="AJ3" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="AK3" s="37">
+      <c r="AK3" s="35">
         <v>45382</v>
       </c>
       <c r="AL3" s="1" t="s">
@@ -1217,11 +1226,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="P2" r:id="rId1" display="companyadmin@avantis.info"/>
-    <hyperlink ref="P3" r:id="rId2" display="companyadmin@avantis.info"/>
+    <hyperlink ref="P2" r:id="rId1" display="performer@avantis.info"/>
+    <hyperlink ref="AE2" r:id="rId2"/>
+    <hyperlink ref="P3" r:id="rId3" display="performer@avantis.info"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
 
@@ -1229,8 +1239,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1277,12 +1287,12 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>7364836</v>
+        <v>7342453</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="36">
+      <c r="C2" s="34">
         <v>45098</v>
       </c>
       <c r="D2" s="11" t="s">
@@ -1292,12 +1302,12 @@
         <v>69</v>
       </c>
       <c r="F2" s="33">
-        <v>149383</v>
+        <v>7</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="35">
+      <c r="H2" s="39">
         <v>45098</v>
       </c>
       <c r="I2" s="33"/>
@@ -1361,7 +1371,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>7364836</v>
+        <v>7342453</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>55</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -3,20 +3,16 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Litigation-Project 10 April2024\TestData\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
     <sheet name="Notice Responses" sheetId="2" r:id="rId2"/>
     <sheet name="Payment Info" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:F12"/>
 </workbook>
 </file>
 
@@ -916,8 +912,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1082,7 +1078,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="36">
-        <v>7342453</v>
+        <v>9818753</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
@@ -1157,7 +1153,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="36">
-        <v>66294</v>
+        <v>64934294</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>70</v>
@@ -1239,8 +1235,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1287,7 +1283,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>7342453</v>
+        <v>9818753</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>74</v>
@@ -1302,7 +1298,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="33">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>68</v>
@@ -1323,7 +1319,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1367,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>7342453</v>
+        <v>9818753</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>55</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -3,8 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Litigation-Project 10 April2024\Litigation-Project 10 April2024\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16035" windowHeight="6075" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -12,12 +17,11 @@
     <sheet name="Payment Info" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:F12"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -432,7 +436,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -527,6 +531,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -912,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ9" sqref="AJ9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1078,7 +1083,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="36">
-        <v>9818753</v>
+        <v>3218753</v>
       </c>
       <c r="D2" t="s">
         <v>70</v>
@@ -1141,8 +1146,8 @@
       <c r="AK2" s="35">
         <v>45382</v>
       </c>
-      <c r="AL2" t="s">
-        <v>67</v>
+      <c r="AL2" s="40">
+        <v>44972</v>
       </c>
     </row>
     <row r="3" spans="1:38" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
@@ -1153,7 +1158,7 @@
         <v>64</v>
       </c>
       <c r="C3" s="36">
-        <v>64934294</v>
+        <v>67434294</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>70</v>
@@ -1236,7 +1241,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1283,7 +1288,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>9818753</v>
+        <v>3218753</v>
       </c>
       <c r="B2" s="33" t="s">
         <v>74</v>
@@ -1298,7 +1303,7 @@
         <v>69</v>
       </c>
       <c r="F2" s="33">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="33" t="s">
         <v>68</v>
@@ -1319,7 +1324,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1367,7 +1372,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>9818753</v>
+        <v>3218753</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>55</v>

--- a/TestData/Litigation_Notice_Upload_Format.xlsx
+++ b/TestData/Litigation_Notice_Upload_Format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9750" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18840" windowHeight="9345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Legal Notice" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="83">
   <si>
     <t>Type of Notice (Inward/ Outward)</t>
   </si>
@@ -222,9 +222,6 @@
   </si>
   <si>
     <t>2022-2023</t>
-  </si>
-  <si>
-    <t>15-02-2023</t>
   </si>
   <si>
     <t>Test test</t>
@@ -917,8 +914,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AJ9" sqref="AJ9"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,13 +1080,13 @@
         <v>64</v>
       </c>
       <c r="C2" s="36">
-        <v>3218753</v>
+        <v>5024025</v>
       </c>
       <c r="D2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
         <v>65</v>
@@ -1098,19 +1095,19 @@
         <v>33</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I2" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K2" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M2" s="30" t="s">
         <v>34</v>
       </c>
       <c r="P2" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="4" t="s">
         <v>35</v>
@@ -1128,10 +1125,10 @@
         <v>2023</v>
       </c>
       <c r="AD2" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE2" s="38" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="AF2" s="38"/>
       <c r="AG2" s="6" t="s">
@@ -1158,34 +1155,34 @@
         <v>64</v>
       </c>
       <c r="C3" s="36">
-        <v>67434294</v>
+        <v>60422025</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>33</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I3" s="31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K3" s="31" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M3" s="30" t="s">
         <v>34</v>
       </c>
       <c r="P3" s="37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="4" t="s">
         <v>35</v>
@@ -1203,10 +1200,10 @@
         <v>2023</v>
       </c>
       <c r="AD3" s="31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="AE3" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF3" s="38"/>
       <c r="AG3" s="6" t="s">
@@ -1221,8 +1218,8 @@
       <c r="AK3" s="35">
         <v>45382</v>
       </c>
-      <c r="AL3" s="1" t="s">
-        <v>67</v>
+      <c r="AL3" s="40">
+        <v>44972</v>
       </c>
     </row>
   </sheetData>
@@ -1241,7 +1238,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1288,10 +1285,10 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A2" s="5">
-        <v>3218753</v>
+        <v>5024025</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C2" s="34">
         <v>45098</v>
@@ -1300,13 +1297,13 @@
         <v>47</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F2" s="33">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="G2" s="33" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="39">
         <v>45098</v>
@@ -1323,7 +1320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -1372,7 +1369,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
-        <v>3218753</v>
+        <v>5024025</v>
       </c>
       <c r="B2" s="14" t="s">
         <v>55</v>
@@ -1382,7 +1379,7 @@
         <v>56</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F2" s="13">
         <v>200000</v>
